--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -364,7 +364,7 @@
   <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -421,6 +421,9 @@
       <c r="A5" s="2">
         <v>44248</v>
       </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
